--- a/stage/stage_3_Home.xlsx
+++ b/stage/stage_3_Home.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>床</t>
     <rPh sb="0" eb="1">
@@ -666,8 +666,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -684,13 +699,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -698,21 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1735,228 +1735,224 @@
       <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="51"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
       <c r="O1" s="7">
         <v>10</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="54">
-        <v>15</v>
-      </c>
-      <c r="W1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="48"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="53"/>
     </row>
     <row r="2" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
       <c r="O2" s="2">
         <v>11</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
       <c r="V2" s="16"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="49"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="54"/>
     </row>
     <row r="3" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="2">
         <v>7</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
       <c r="O3" s="2">
         <v>12</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="47"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="49"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="54"/>
     </row>
     <row r="4" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
       <c r="O4" s="2">
         <v>13</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="47"/>
       <c r="V4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="40" t="s">
+      <c r="W4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="49"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="54"/>
     </row>
     <row r="5" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="3">
         <v>14</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
       <c r="AB5" s="50"/>
     </row>
     <row r="6" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
@@ -4009,7 +4005,7 @@
       <c r="X32" s="9">
         <v>0</v>
       </c>
-      <c r="Y32" s="52">
+      <c r="Y32" s="39">
         <v>0</v>
       </c>
       <c r="Z32" s="9"/>
@@ -4329,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="28"/>
-      <c r="W36" s="53">
+      <c r="W36" s="40">
         <v>1</v>
       </c>
       <c r="X36" s="37">
@@ -5464,11 +5460,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P5:AB5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -5484,6 +5475,11 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P5:AB5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A29:BA29 A22:A28 A6:BA21 F22:H22 L22:BA28 F23:K28">

--- a/stage/stage_3_Home.xlsx
+++ b/stage/stage_3_Home.xlsx
@@ -192,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -478,77 +478,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,35 +581,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -693,6 +611,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -708,17 +632,289 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="114">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1298,16 +1494,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>129681</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>227713</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>107268</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>238920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>136031</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52260</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>113619</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63467</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1316,8 +1512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6142855" y="2464017"/>
-          <a:ext cx="553002" cy="321504"/>
+          <a:off x="7379886" y="4676449"/>
+          <a:ext cx="566645" cy="317606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1378,16 +1574,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>113117</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>62060</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>194921</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>119467</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>135085</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>201270</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>108191</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1396,8 +1592,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6946269" y="8510321"/>
-          <a:ext cx="553002" cy="321503"/>
+          <a:off x="6627097" y="7924108"/>
+          <a:ext cx="566644" cy="319554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1724,7 +1920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH40" sqref="AH40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1735,224 +1933,224 @@
       <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
       <c r="O1" s="7">
         <v>10</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="53"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="42"/>
     </row>
     <row r="2" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="2">
         <v>11</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
       <c r="V2" s="16"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="54"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="43"/>
     </row>
     <row r="3" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="2">
         <v>7</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="2">
         <v>12</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="47"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="41"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="54"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="2">
         <v>13</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="41"/>
       <c r="V4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="45" t="s">
+      <c r="W4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="54"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="43"/>
     </row>
     <row r="5" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="52"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="52"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="48"/>
       <c r="O5" s="3">
         <v>14</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="50"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="46"/>
     </row>
     <row r="6" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
@@ -1998,11 +2196,11 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
@@ -2052,22 +2250,12 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="9">
-        <v>8</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>8</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>8</v>
-      </c>
-      <c r="AC8" s="17">
-        <v>8</v>
-      </c>
-      <c r="AD8" s="24">
-        <v>8</v>
-      </c>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
@@ -2117,22 +2305,12 @@
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="17">
-        <v>8</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>8</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>8</v>
-      </c>
-      <c r="AC9" s="17">
-        <v>8</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>8</v>
-      </c>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
@@ -2182,22 +2360,12 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="18">
-        <v>8</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>8</v>
-      </c>
-      <c r="AB10" s="9">
-        <v>8</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>8</v>
-      </c>
-      <c r="AD10" s="19">
-        <v>8</v>
-      </c>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
@@ -2248,17 +2416,11 @@
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="18"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
@@ -2283,7 +2445,7 @@
       <c r="AZ11" s="9"/>
       <c r="BA11" s="15"/>
     </row>
-    <row r="12" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2292,8 +2454,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -2306,24 +2468,14 @@
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="17">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>7</v>
-      </c>
-      <c r="AC12" s="17">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="24">
-        <v>5</v>
-      </c>
+      <c r="W12" s="17"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
@@ -2348,16 +2500,16 @@
       <c r="AZ12" s="9"/>
       <c r="BA12" s="15"/>
     </row>
-    <row r="13" spans="1:53" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2370,31 +2522,15 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="17">
-        <v>1</v>
-      </c>
-      <c r="X13" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="17">
-        <v>14</v>
-      </c>
-      <c r="AA13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="24">
-        <v>14</v>
-      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -2425,12 +2561,12 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="14"/>
       <c r="M14" s="18"/>
       <c r="N14" s="14"/>
@@ -2441,31 +2577,15 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="17">
-        <v>1</v>
-      </c>
-      <c r="X14" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="24">
-        <v>0</v>
-      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
@@ -2505,19 +2625,19 @@
       <c r="F15" s="9">
         <v>6</v>
       </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0</v>
+      </c>
+      <c r="J15" s="32">
+        <v>0</v>
+      </c>
+      <c r="K15" s="32">
         <v>0</v>
       </c>
       <c r="L15" s="9">
@@ -2527,22 +2647,22 @@
         <v>0</v>
       </c>
       <c r="N15" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O15" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P15" s="9">
         <v>0</v>
       </c>
-      <c r="Q15" s="9">
-        <v>13</v>
+      <c r="Q15" s="35">
+        <v>0</v>
       </c>
       <c r="R15" s="9">
         <v>0</v>
       </c>
       <c r="S15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="9">
         <v>1</v>
@@ -2550,34 +2670,26 @@
       <c r="U15" s="9">
         <v>1</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="32">
         <v>1</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="32">
+        <v>1</v>
+      </c>
+      <c r="X15" s="21">
         <v>14</v>
       </c>
-      <c r="X15" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="24">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="9">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="28"/>
+      <c r="Y15" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="9"/>
       <c r="AF15" s="17"/>
       <c r="AG15" s="17"/>
       <c r="AH15" s="17"/>
@@ -2603,7 +2715,7 @@
     </row>
     <row r="16" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="9">
         <v>0</v>
       </c>
@@ -2635,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N16" s="9">
         <v>0</v>
@@ -2646,14 +2758,14 @@
       <c r="P16" s="9">
         <v>0</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="22">
         <v>0</v>
       </c>
       <c r="R16" s="9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="9">
         <v>1</v>
@@ -2664,31 +2776,23 @@
       <c r="V16" s="9">
         <v>1</v>
       </c>
-      <c r="W16" s="17">
+      <c r="W16" s="9">
+        <v>1</v>
+      </c>
+      <c r="X16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="17">
         <v>14</v>
       </c>
-      <c r="X16" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9">
-        <v>14</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="28"/>
+      <c r="Z16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="9"/>
       <c r="AF16" s="17"/>
       <c r="AG16" s="17"/>
       <c r="AH16" s="17"/>
@@ -2714,9 +2818,7 @@
     </row>
     <row r="17" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="13"/>
-      <c r="B17" s="22">
-        <v>0</v>
-      </c>
+      <c r="B17" s="24"/>
       <c r="C17" s="9">
         <v>0</v>
       </c>
@@ -2759,14 +2861,14 @@
       <c r="P17" s="9">
         <v>0</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="22">
         <v>0</v>
       </c>
       <c r="R17" s="9">
         <v>0</v>
       </c>
-      <c r="S17" s="14">
-        <v>1</v>
+      <c r="S17" s="9">
+        <v>0</v>
       </c>
       <c r="T17" s="14">
         <v>1</v>
@@ -2777,31 +2879,23 @@
       <c r="V17" s="14">
         <v>1</v>
       </c>
-      <c r="W17" s="18">
-        <v>0</v>
-      </c>
-      <c r="X17" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="20">
+      <c r="W17" s="14">
+        <v>1</v>
+      </c>
+      <c r="X17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="17">
         <v>14</v>
       </c>
-      <c r="Z17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="9">
-        <v>13</v>
-      </c>
-      <c r="AE17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="9"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
       <c r="AH17" s="17"/>
@@ -2827,14 +2921,12 @@
     </row>
     <row r="18" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="13"/>
-      <c r="B18" s="22">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
@@ -2858,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M18" s="9">
         <v>0</v>
@@ -2872,11 +2964,11 @@
       <c r="P18" s="9">
         <v>0</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="22">
         <v>0</v>
       </c>
       <c r="R18" s="9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S18" s="9">
         <v>0</v>
@@ -2890,31 +2982,23 @@
       <c r="V18" s="9">
         <v>0</v>
       </c>
-      <c r="W18" s="9">
-        <v>13</v>
+      <c r="W18" s="33">
+        <v>0</v>
       </c>
       <c r="X18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>13</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="9"/>
       <c r="AF18" s="17"/>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17"/>
@@ -2940,9 +3024,7 @@
     </row>
     <row r="19" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="13"/>
-      <c r="B19" s="29">
-        <v>0</v>
-      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="17">
         <v>0</v>
       </c>
@@ -2983,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="17">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="28">
         <v>0</v>
       </c>
       <c r="R19" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S19" s="17">
         <v>0</v>
@@ -3003,31 +3085,23 @@
       <c r="V19" s="17">
         <v>0</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="24">
         <v>0</v>
       </c>
       <c r="X19" s="17">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="17">
-        <v>14</v>
-      </c>
-      <c r="AD19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="9"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="17"/>
       <c r="AH19" s="17"/>
@@ -3085,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N20" s="17">
         <v>0</v>
@@ -3096,17 +3170,17 @@
       <c r="P20" s="17">
         <v>0</v>
       </c>
-      <c r="Q20" s="17">
-        <v>14</v>
+      <c r="Q20" s="28">
+        <v>5</v>
       </c>
       <c r="R20" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S20" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" s="17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U20" s="17">
         <v>0</v>
@@ -3114,31 +3188,23 @@
       <c r="V20" s="17">
         <v>0</v>
       </c>
-      <c r="W20" s="17">
+      <c r="W20" s="24">
         <v>0</v>
       </c>
       <c r="X20" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="17">
-        <v>13</v>
-      </c>
-      <c r="Z20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="17">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="9"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
       <c r="AH20" s="17"/>
@@ -3181,18 +3247,18 @@
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I21" s="18">
         <v>0</v>
       </c>
-      <c r="J21" s="17">
-        <v>0</v>
-      </c>
-      <c r="K21" s="17">
-        <v>0</v>
-      </c>
-      <c r="L21" s="17">
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
         <v>3</v>
       </c>
       <c r="M21" s="17">
@@ -3202,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P21" s="18">
         <v>0</v>
       </c>
-      <c r="Q21" s="18">
-        <v>0</v>
+      <c r="Q21" s="29">
+        <v>5</v>
       </c>
       <c r="R21" s="18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="S21" s="17">
         <v>0</v>
@@ -3222,34 +3288,26 @@
       <c r="U21" s="17">
         <v>0</v>
       </c>
-      <c r="V21" s="18">
-        <v>14</v>
-      </c>
-      <c r="W21" s="18">
-        <v>0</v>
+      <c r="V21" s="17">
+        <v>0</v>
+      </c>
+      <c r="W21" s="24">
+        <v>7</v>
       </c>
       <c r="X21" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="18">
-        <v>14</v>
-      </c>
-      <c r="AB21" s="18">
-        <v>6</v>
-      </c>
-      <c r="AC21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="Z21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="9"/>
       <c r="AF21" s="17"/>
       <c r="AG21" s="17"/>
       <c r="AH21" s="17"/>
@@ -3275,42 +3333,61 @@
     </row>
     <row r="22" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="13"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="28">
+      <c r="J22" s="28">
+        <v>6</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <v>4</v>
+      </c>
+      <c r="M22" s="17">
         <v>0</v>
       </c>
       <c r="N22" s="17">
         <v>0</v>
       </c>
-      <c r="O22" s="24">
-        <v>0</v>
-      </c>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="28">
+      <c r="O22" s="17">
+        <v>0</v>
+      </c>
+      <c r="P22" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17">
+        <v>0</v>
+      </c>
+      <c r="S22" s="21">
         <v>4</v>
       </c>
       <c r="T22" s="17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U22" s="17">
-        <v>4</v>
-      </c>
-      <c r="V22" s="22"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="17">
+        <v>0</v>
+      </c>
+      <c r="W22" s="21">
+        <v>14</v>
+      </c>
+      <c r="X22" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="31">
+        <v>3</v>
+      </c>
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
-      <c r="AD22" s="9"/>
+      <c r="AD22" s="17"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="17"/>
@@ -3338,59 +3415,57 @@
     <row r="23" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="30">
-        <v>0</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="J23" s="28">
+        <v>6</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
+        <v>4</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17">
+        <v>0</v>
+      </c>
+      <c r="P23" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>6</v>
+      </c>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="17">
+        <v>0</v>
+      </c>
+      <c r="T23" s="17">
+        <v>14</v>
+      </c>
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+      <c r="V23" s="17">
+        <v>0</v>
+      </c>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="24">
         <v>11</v>
       </c>
-      <c r="H23" s="21">
-        <v>11</v>
-      </c>
-      <c r="I23" s="17">
-        <v>11</v>
-      </c>
-      <c r="J23" s="17">
-        <v>11</v>
-      </c>
-      <c r="K23" s="17">
-        <v>0</v>
-      </c>
-      <c r="L23" s="17">
-        <v>0</v>
-      </c>
-      <c r="M23" s="17">
-        <v>0</v>
-      </c>
-      <c r="N23" s="17">
-        <v>0</v>
-      </c>
-      <c r="O23" s="17">
-        <v>0</v>
-      </c>
-      <c r="P23" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="30">
-        <v>10</v>
-      </c>
-      <c r="S23" s="17">
-        <v>0</v>
-      </c>
-      <c r="T23" s="17">
-        <v>0</v>
-      </c>
-      <c r="U23" s="17">
-        <v>0</v>
-      </c>
-      <c r="V23" s="21">
-        <v>0</v>
-      </c>
-      <c r="W23" s="22"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
@@ -3422,59 +3497,57 @@
     <row r="24" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="13"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="28">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
+      <c r="J24" s="28">
         <v>7</v>
       </c>
-      <c r="J24" s="17">
-        <v>0</v>
-      </c>
       <c r="K24" s="17">
         <v>0</v>
       </c>
       <c r="L24" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24" s="17">
         <v>0</v>
       </c>
       <c r="N24" s="17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O24" s="17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P24" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="28">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>4</v>
+      </c>
+      <c r="R24" s="17">
+        <v>4</v>
       </c>
       <c r="S24" s="17">
         <v>0</v>
       </c>
       <c r="T24" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U24" s="17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V24" s="17">
         <v>0</v>
       </c>
-      <c r="W24" s="22"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="17"/>
+      <c r="W24" s="17">
+        <v>0</v>
+      </c>
+      <c r="X24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="24">
+        <v>11</v>
+      </c>
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
@@ -3506,32 +3579,20 @@
     <row r="25" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="13"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="28">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>7</v>
-      </c>
-      <c r="H25" s="17">
-        <v>12</v>
-      </c>
-      <c r="I25" s="17">
-        <v>12</v>
-      </c>
-      <c r="J25" s="17">
+      <c r="J25" s="28">
         <v>0</v>
       </c>
       <c r="K25" s="17">
         <v>0</v>
       </c>
       <c r="L25" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25" s="17">
         <v>0</v>
       </c>
       <c r="N25" s="17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O25" s="17">
         <v>0</v>
@@ -3539,8 +3600,8 @@
       <c r="P25" s="17">
         <v>0</v>
       </c>
-      <c r="Q25" s="21">
-        <v>4</v>
+      <c r="Q25" s="17">
+        <v>0</v>
       </c>
       <c r="R25" s="17">
         <v>0</v>
@@ -3549,18 +3610,26 @@
         <v>0</v>
       </c>
       <c r="T25" s="17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U25" s="17">
         <v>0</v>
       </c>
       <c r="V25" s="17">
-        <v>0</v>
-      </c>
-      <c r="W25" s="22"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="W25" s="17">
+        <v>0</v>
+      </c>
+      <c r="X25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="24">
+        <v>11</v>
+      </c>
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
@@ -3592,20 +3661,8 @@
     <row r="26" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="13"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="28">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>12</v>
-      </c>
-      <c r="I26" s="17">
-        <v>12</v>
-      </c>
-      <c r="J26" s="17">
-        <v>7</v>
+      <c r="J26" s="28">
+        <v>0</v>
       </c>
       <c r="K26" s="17">
         <v>0</v>
@@ -3617,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O26" s="17">
         <v>0</v>
@@ -3626,27 +3683,35 @@
         <v>0</v>
       </c>
       <c r="Q26" s="17">
+        <v>0</v>
+      </c>
+      <c r="R26" s="17">
+        <v>0</v>
+      </c>
+      <c r="S26" s="17">
+        <v>14</v>
+      </c>
+      <c r="T26" s="17">
+        <v>0</v>
+      </c>
+      <c r="U26" s="17">
+        <v>0</v>
+      </c>
+      <c r="V26" s="17">
+        <v>0</v>
+      </c>
+      <c r="W26" s="17">
         <v>4</v>
       </c>
-      <c r="R26" s="17">
-        <v>0</v>
-      </c>
-      <c r="S26" s="17">
-        <v>0</v>
-      </c>
-      <c r="T26" s="17">
-        <v>7</v>
-      </c>
-      <c r="U26" s="17">
-        <v>0</v>
-      </c>
-      <c r="V26" s="17">
-        <v>0</v>
-      </c>
-      <c r="W26" s="28"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
+      <c r="X26" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="24">
+        <v>11</v>
+      </c>
       <c r="AA26" s="17"/>
       <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
@@ -3678,59 +3743,57 @@
     <row r="27" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="13"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="28">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
+      <c r="J27" s="29">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27" s="18">
+        <v>0</v>
+      </c>
+      <c r="O27" s="18">
+        <v>0</v>
+      </c>
+      <c r="P27" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="18">
         <v>7</v>
       </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0</v>
-      </c>
-      <c r="K27" s="17">
-        <v>0</v>
-      </c>
-      <c r="L27" s="17">
-        <v>0</v>
-      </c>
-      <c r="M27" s="17">
-        <v>0</v>
-      </c>
-      <c r="N27" s="17">
-        <v>0</v>
-      </c>
-      <c r="O27" s="17">
-        <v>0</v>
-      </c>
-      <c r="P27" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="28">
-        <v>0</v>
-      </c>
-      <c r="S27" s="17">
-        <v>0</v>
-      </c>
-      <c r="T27" s="17">
-        <v>0</v>
-      </c>
-      <c r="U27" s="9">
-        <v>0</v>
-      </c>
-      <c r="V27" s="17">
-        <v>0</v>
-      </c>
-      <c r="W27" s="28"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
+      <c r="R27" s="18">
+        <v>7</v>
+      </c>
+      <c r="S27" s="14">
+        <v>0</v>
+      </c>
+      <c r="T27" s="14">
+        <v>0</v>
+      </c>
+      <c r="U27" s="18">
+        <v>0</v>
+      </c>
+      <c r="V27" s="18">
+        <v>0</v>
+      </c>
+      <c r="W27" s="18">
+        <v>0</v>
+      </c>
+      <c r="X27" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="20">
+        <v>3</v>
+      </c>
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
       <c r="AC27" s="9"/>
@@ -3762,58 +3825,22 @@
     <row r="28" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="13"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="29">
-        <v>0</v>
-      </c>
-      <c r="G28" s="18">
-        <v>2</v>
-      </c>
-      <c r="H28" s="18">
-        <v>2</v>
-      </c>
-      <c r="I28" s="18">
-        <v>2</v>
-      </c>
-      <c r="J28" s="18">
-        <v>2</v>
-      </c>
-      <c r="K28" s="18">
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
-        <v>0</v>
-      </c>
-      <c r="M28" s="18">
-        <v>0</v>
-      </c>
-      <c r="N28" s="18">
-        <v>0</v>
-      </c>
-      <c r="O28" s="18">
-        <v>0</v>
-      </c>
-      <c r="P28" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="28">
-        <v>0</v>
-      </c>
-      <c r="S28" s="17">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0</v>
-      </c>
-      <c r="U28" s="9">
-        <v>0</v>
-      </c>
-      <c r="V28" s="17">
-        <v>0</v>
-      </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
       <c r="AB28" s="9"/>
@@ -3861,11 +3888,11 @@
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
@@ -3913,20 +3940,20 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
@@ -3968,47 +3995,42 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="22">
-        <v>11</v>
-      </c>
-      <c r="M32" s="9">
-        <v>11</v>
-      </c>
-      <c r="N32" s="9">
-        <v>11</v>
-      </c>
-      <c r="O32" s="9">
-        <v>11</v>
-      </c>
-      <c r="P32" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="22">
-        <v>0</v>
-      </c>
-      <c r="S32" s="9">
-        <v>0</v>
-      </c>
-      <c r="T32" s="9">
-        <v>14</v>
-      </c>
-      <c r="U32" s="9">
-        <v>0</v>
-      </c>
-      <c r="V32" s="9">
-        <v>1</v>
-      </c>
-      <c r="W32" s="9">
-        <v>14</v>
-      </c>
-      <c r="X32" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="35">
+        <v>7</v>
+      </c>
+      <c r="N32" s="32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>0</v>
+      </c>
+      <c r="R32" s="32">
+        <v>13</v>
+      </c>
+      <c r="S32" s="32">
+        <v>0</v>
+      </c>
+      <c r="T32" s="32">
+        <v>0</v>
+      </c>
+      <c r="U32" s="32">
+        <v>0</v>
+      </c>
+      <c r="V32" s="32">
+        <v>0</v>
+      </c>
+      <c r="W32" s="32">
+        <v>7</v>
+      </c>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="17"/>
@@ -4047,51 +4069,42 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="28">
-        <v>0</v>
-      </c>
-      <c r="M33" s="17">
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="22">
         <v>7</v>
       </c>
-      <c r="N33" s="17">
-        <v>0</v>
-      </c>
-      <c r="O33" s="17">
-        <v>0</v>
-      </c>
-      <c r="P33" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="17">
-        <v>0</v>
-      </c>
-      <c r="R33" s="17">
-        <v>0</v>
-      </c>
-      <c r="S33" s="17">
-        <v>0</v>
-      </c>
-      <c r="T33" s="17">
-        <v>0</v>
-      </c>
-      <c r="U33" s="17">
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33" s="9">
         <v>13</v>
       </c>
-      <c r="V33" s="17">
-        <v>1</v>
-      </c>
-      <c r="W33" s="17">
-        <v>0</v>
-      </c>
-      <c r="X33" s="17">
-        <v>14</v>
-      </c>
-      <c r="Y33" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="17"/>
+      <c r="V33" s="9">
+        <v>13</v>
+      </c>
+      <c r="W33" s="16">
+        <v>3</v>
+      </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="17"/>
@@ -4130,51 +4143,42 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="28">
-        <v>6</v>
-      </c>
-      <c r="M34" s="17">
-        <v>0</v>
-      </c>
-      <c r="N34" s="17">
-        <v>6</v>
-      </c>
-      <c r="O34" s="17">
-        <v>0</v>
-      </c>
-      <c r="P34" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="17">
-        <v>0</v>
-      </c>
-      <c r="R34" s="17">
-        <v>0</v>
-      </c>
-      <c r="S34" s="17">
-        <v>14</v>
-      </c>
-      <c r="T34" s="17">
-        <v>0</v>
-      </c>
-      <c r="U34" s="17">
-        <v>0</v>
-      </c>
-      <c r="V34" s="18">
-        <v>1</v>
-      </c>
-      <c r="W34" s="17">
-        <v>0</v>
-      </c>
-      <c r="X34" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="24">
-        <v>14</v>
-      </c>
-      <c r="Z34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="22">
+        <v>4</v>
+      </c>
+      <c r="N34" s="9">
+        <v>4</v>
+      </c>
+      <c r="O34" s="9">
+        <v>4</v>
+      </c>
+      <c r="P34" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>13</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <v>0</v>
+      </c>
+      <c r="V34" s="9">
+        <v>0</v>
+      </c>
+      <c r="W34" s="16">
+        <v>0</v>
+      </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
@@ -4213,49 +4217,51 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="28">
-        <v>0</v>
-      </c>
-      <c r="M35" s="17">
-        <v>7</v>
-      </c>
-      <c r="N35" s="17">
-        <v>0</v>
-      </c>
-      <c r="O35" s="17">
-        <v>0</v>
-      </c>
-      <c r="P35" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="18">
-        <v>0</v>
-      </c>
-      <c r="R35" s="17">
-        <v>13</v>
-      </c>
-      <c r="S35" s="17">
-        <v>0</v>
-      </c>
-      <c r="T35" s="17">
-        <v>0</v>
-      </c>
-      <c r="U35" s="17">
-        <v>14</v>
-      </c>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28">
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="22">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
+      <c r="U35" s="9">
+        <v>9</v>
+      </c>
+      <c r="V35" s="9">
+        <v>0</v>
+      </c>
+      <c r="W35" s="16">
+        <v>0</v>
+      </c>
+      <c r="X35" s="9">
         <v>1</v>
       </c>
-      <c r="X35" s="17">
+      <c r="Y35" s="9">
         <v>1</v>
       </c>
-      <c r="Y35" s="24">
+      <c r="Z35" s="16">
         <v>1</v>
       </c>
-      <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
       <c r="AC35" s="17"/>
@@ -4284,7 +4290,7 @@
       <c r="AZ35" s="9"/>
       <c r="BA35" s="15"/>
     </row>
-    <row r="36" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="13"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -4296,45 +4302,49 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="23">
-        <v>2</v>
-      </c>
-      <c r="M36" s="14">
-        <v>2</v>
-      </c>
-      <c r="N36" s="14">
-        <v>2</v>
-      </c>
-      <c r="O36" s="14">
-        <v>2</v>
-      </c>
-      <c r="P36" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="28">
-        <v>0</v>
-      </c>
-      <c r="S36" s="17">
+      <c r="L36" s="9"/>
+      <c r="M36" s="22">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>13</v>
+      </c>
+      <c r="S36" s="9">
         <v>0</v>
       </c>
       <c r="T36" s="17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U36" s="17">
         <v>0</v>
       </c>
-      <c r="V36" s="28"/>
-      <c r="W36" s="40">
+      <c r="V36" s="17">
+        <v>0</v>
+      </c>
+      <c r="W36" s="24">
+        <v>0</v>
+      </c>
+      <c r="X36" s="17">
         <v>1</v>
       </c>
-      <c r="X36" s="37">
+      <c r="Y36" s="17">
         <v>1</v>
       </c>
-      <c r="Y36" s="38">
+      <c r="Z36" s="24">
         <v>1</v>
       </c>
-      <c r="Z36" s="17"/>
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
       <c r="AC36" s="17"/>
@@ -4363,7 +4373,7 @@
       <c r="AZ36" s="9"/>
       <c r="BA36" s="15"/>
     </row>
-    <row r="37" spans="1:53" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="13"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -4373,32 +4383,49 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="28">
-        <v>0</v>
-      </c>
-      <c r="S37" s="17">
+      <c r="M37" s="22">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
         <v>0</v>
       </c>
       <c r="T37" s="17">
         <v>0</v>
       </c>
       <c r="U37" s="17">
-        <v>0</v>
-      </c>
-      <c r="V37" s="28"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="V37" s="17">
+        <v>13</v>
+      </c>
+      <c r="W37" s="24">
+        <v>3</v>
+      </c>
+      <c r="X37" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="17"/>
       <c r="AB37" s="17"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
@@ -4436,13 +4463,8 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="22">
-        <v>12</v>
-      </c>
-      <c r="M38" s="9">
-        <v>12</v>
+      <c r="M38" s="22">
+        <v>0</v>
       </c>
       <c r="N38" s="9">
         <v>0</v>
@@ -4453,36 +4475,38 @@
       <c r="P38" s="9">
         <v>0</v>
       </c>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="28">
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
         <v>13</v>
       </c>
-      <c r="S38" s="17">
+      <c r="S38" s="9">
         <v>0</v>
       </c>
       <c r="T38" s="17">
         <v>0</v>
       </c>
-      <c r="U38" s="17">
-        <v>13</v>
-      </c>
-      <c r="V38" s="29"/>
-      <c r="W38" s="22">
-        <v>14</v>
-      </c>
-      <c r="X38" s="9">
-        <v>13</v>
-      </c>
-      <c r="Y38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="9">
-        <v>13</v>
-      </c>
-      <c r="AA38" s="9">
-        <v>14</v>
-      </c>
-      <c r="AB38" s="22"/>
+      <c r="U38" s="18">
+        <v>0</v>
+      </c>
+      <c r="V38" s="18">
+        <v>0</v>
+      </c>
+      <c r="W38" s="20">
+        <v>7</v>
+      </c>
+      <c r="X38" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
       <c r="AE38" s="9"/>
@@ -4519,43 +4543,38 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="28">
-        <v>12</v>
-      </c>
-      <c r="M39" s="17">
-        <v>12</v>
-      </c>
-      <c r="N39" s="17">
-        <v>0</v>
-      </c>
-      <c r="O39" s="17">
-        <v>0</v>
-      </c>
-      <c r="P39" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="17">
-        <v>0</v>
-      </c>
-      <c r="R39" s="17">
-        <v>0</v>
-      </c>
-      <c r="S39" s="17">
+      <c r="M39" s="22">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0</v>
+      </c>
+      <c r="P39" s="32">
         <v>14</v>
       </c>
-      <c r="T39" s="17">
+      <c r="Q39" s="32">
+        <v>0</v>
+      </c>
+      <c r="R39" s="32">
+        <v>0</v>
+      </c>
+      <c r="S39" s="33">
+        <v>0</v>
+      </c>
+      <c r="T39" s="30">
         <v>0</v>
       </c>
       <c r="U39" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V39" s="17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="W39" s="17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X39" s="17">
         <v>0</v>
@@ -4566,10 +4585,8 @@
       <c r="Z39" s="17">
         <v>0</v>
       </c>
-      <c r="AA39" s="17">
-        <v>13</v>
-      </c>
-      <c r="AB39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="17"/>
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="17"/>
@@ -4606,34 +4623,29 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="28">
-        <v>0</v>
-      </c>
-      <c r="M40" s="17">
-        <v>0</v>
-      </c>
-      <c r="N40" s="17">
-        <v>0</v>
-      </c>
-      <c r="O40" s="17">
-        <v>0</v>
-      </c>
-      <c r="P40" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="17">
-        <v>0</v>
-      </c>
-      <c r="R40" s="17">
-        <v>0</v>
-      </c>
-      <c r="S40" s="17">
-        <v>0</v>
-      </c>
-      <c r="T40" s="17">
-        <v>0</v>
+      <c r="M40" s="22">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9">
+        <v>14</v>
+      </c>
+      <c r="O40" s="9">
+        <v>14</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+      <c r="R40" s="9">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9">
+        <v>13</v>
+      </c>
+      <c r="T40" s="28">
+        <v>4</v>
       </c>
       <c r="U40" s="17">
         <v>0</v>
@@ -4642,21 +4654,19 @@
         <v>0</v>
       </c>
       <c r="W40" s="17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X40" s="17">
         <v>0</v>
       </c>
       <c r="Y40" s="17">
-        <v>9</v>
-      </c>
-      <c r="Z40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
       <c r="AE40" s="17"/>
@@ -4693,57 +4703,50 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="28">
-        <v>0</v>
-      </c>
-      <c r="M41" s="17">
-        <v>2</v>
-      </c>
-      <c r="N41" s="17">
-        <v>2</v>
-      </c>
-      <c r="O41" s="17">
-        <v>2</v>
-      </c>
-      <c r="P41" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="18">
-        <v>0</v>
-      </c>
-      <c r="R41" s="17">
-        <v>0</v>
-      </c>
-      <c r="S41" s="17">
+      <c r="M41" s="22">
+        <v>0</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+      <c r="R41" s="9">
+        <v>13</v>
+      </c>
+      <c r="S41" s="9">
         <v>0</v>
       </c>
       <c r="T41" s="17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U41" s="17">
-        <v>0</v>
-      </c>
-      <c r="V41" s="18">
+        <v>4</v>
+      </c>
+      <c r="V41" s="17">
+        <v>0</v>
+      </c>
+      <c r="W41" s="17">
+        <v>0</v>
+      </c>
+      <c r="X41" s="17">
         <v>14</v>
       </c>
-      <c r="W41" s="17">
-        <v>13</v>
-      </c>
-      <c r="X41" s="17">
-        <v>0</v>
-      </c>
       <c r="Y41" s="17">
         <v>0</v>
       </c>
-      <c r="Z41" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="17">
-        <v>13</v>
-      </c>
-      <c r="AB41" s="28"/>
+      <c r="Z41" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
       <c r="AE41" s="17"/>
@@ -4780,53 +4783,50 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="23">
-        <v>0</v>
-      </c>
-      <c r="M42" s="14">
-        <v>0</v>
-      </c>
-      <c r="N42" s="14">
-        <v>0</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0</v>
-      </c>
-      <c r="P42" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="29">
-        <v>0</v>
-      </c>
-      <c r="S42" s="18">
-        <v>0</v>
-      </c>
-      <c r="T42" s="18">
-        <v>0</v>
-      </c>
-      <c r="U42" s="18">
-        <v>0</v>
-      </c>
-      <c r="V42" s="22"/>
-      <c r="W42" s="23">
+      <c r="M42" s="22">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+      <c r="R42" s="9">
+        <v>13</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0</v>
+      </c>
+      <c r="T42" s="17">
+        <v>0</v>
+      </c>
+      <c r="U42" s="17">
+        <v>0</v>
+      </c>
+      <c r="V42" s="17">
+        <v>4</v>
+      </c>
+      <c r="W42" s="17">
+        <v>0</v>
+      </c>
+      <c r="X42" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="17">
         <v>14</v>
       </c>
-      <c r="X42" s="14">
-        <v>13</v>
-      </c>
-      <c r="Y42" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="14">
-        <v>13</v>
-      </c>
-      <c r="AA42" s="14">
-        <v>14</v>
-      </c>
-      <c r="AB42" s="22"/>
+      <c r="Z42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
       <c r="AE42" s="17"/>
@@ -4866,20 +4866,48 @@
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
+      <c r="M43" s="22">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>0</v>
+      </c>
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
+      <c r="S43" s="9">
+        <v>0</v>
+      </c>
+      <c r="T43" s="17">
+        <v>0</v>
+      </c>
+      <c r="U43" s="17">
+        <v>0</v>
+      </c>
+      <c r="V43" s="17">
+        <v>0</v>
+      </c>
+      <c r="W43" s="9">
+        <v>4</v>
+      </c>
+      <c r="X43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="24">
+        <v>14</v>
+      </c>
       <c r="AA43" s="17"/>
       <c r="AB43" s="17"/>
       <c r="AC43" s="17"/>
@@ -4921,20 +4949,48 @@
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
+      <c r="M44" s="22">
+        <v>3</v>
+      </c>
+      <c r="N44" s="9">
+        <v>3</v>
+      </c>
+      <c r="O44" s="9">
+        <v>3</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
+      <c r="S44" s="16">
+        <v>0</v>
+      </c>
+      <c r="T44" s="17">
+        <v>0</v>
+      </c>
+      <c r="U44" s="17">
+        <v>0</v>
+      </c>
+      <c r="V44" s="9">
+        <v>0</v>
+      </c>
+      <c r="W44" s="9">
+        <v>0</v>
+      </c>
+      <c r="X44" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="24">
+        <v>0</v>
+      </c>
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
       <c r="AC44" s="17"/>
@@ -4976,20 +5032,48 @@
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
+      <c r="M45" s="23">
+        <v>7</v>
+      </c>
+      <c r="N45" s="14">
+        <v>7</v>
+      </c>
+      <c r="O45" s="14">
+        <v>0</v>
+      </c>
+      <c r="P45" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>0</v>
+      </c>
+      <c r="R45" s="14">
+        <v>0</v>
+      </c>
+      <c r="S45" s="19">
+        <v>0</v>
+      </c>
+      <c r="T45" s="29">
+        <v>0</v>
+      </c>
+      <c r="U45" s="18">
+        <v>0</v>
+      </c>
+      <c r="V45" s="18">
+        <v>0</v>
+      </c>
+      <c r="W45" s="18">
+        <v>0</v>
+      </c>
+      <c r="X45" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="20">
+        <v>0</v>
+      </c>
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17"/>
@@ -5460,262 +5544,380 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P5:AB5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="I5:N5"/>
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P4:U4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="P1:U1"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P5:AB5"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="W3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A29:BA29 A22:A28 A6:BA21 F22:H22 L22:BA28 F23:K28">
+  <conditionalFormatting sqref="A29:BA29 A22:A28 A6:BA21 J32:L35 T36:Z38 M37:S45 M32:W32 R33:W34 R36:S36 R35:Z35 M33:Q36 J22:BA28">
+    <cfRule type="expression" dxfId="113" priority="94">
+      <formula>A6=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="95">
+      <formula>A6=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="96">
+      <formula>A6=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="97">
+      <formula>A6=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="98">
+      <formula>A6=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="99">
+      <formula>A6=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="100">
+      <formula>A6=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="101">
+      <formula>A6=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="102">
+      <formula>A6=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="103">
+      <formula>A6=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BA4 A5:P5 AC5:BA5 A29:BA29 A22:E28 A6:BA21 J32:L35 T36:Z38 M37:S45 M32:W32 R33:W34 R36:S36 R35:Z35 M33:Q36 J22:BA28">
+    <cfRule type="expression" dxfId="103" priority="77">
+      <formula>A1="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="78">
+      <formula>A1=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="79">
+      <formula>A1=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="80">
+      <formula>A1=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="81">
+      <formula>A1=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="82">
+      <formula>A1=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="83">
+      <formula>A1=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="84">
+      <formula>A1=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="85">
+      <formula>A1=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="86">
+      <formula>A1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="87">
+      <formula>A1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="88">
+      <formula>A1=15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="89">
+      <formula>A1=14</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="90">
+      <formula>A1=13</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="91">
+      <formula>A1=12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="92">
+      <formula>A1=11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="93">
+      <formula>A1="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="137">
+      <formula>A1="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="138">
+      <formula>A1=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="139">
+      <formula>A1=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="140">
+      <formula>A1=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="141">
+      <formula>A1=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="142">
+      <formula>A1=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="143">
+      <formula>A1=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="144">
+      <formula>A1=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="145">
+      <formula>A1=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="146">
+      <formula>A1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="147">
+      <formula>A1=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:BA53 A46:A52 F46:H46 L46:BA52 F47:K52 A31:BA31 A43:L45 A32:I42 AA32:BA45">
     <cfRule type="expression" dxfId="75" priority="56">
-      <formula>A6=10</formula>
+      <formula>A31=10</formula>
     </cfRule>
     <cfRule type="expression" dxfId="74" priority="57">
-      <formula>A6=9</formula>
+      <formula>A31=9</formula>
     </cfRule>
     <cfRule type="expression" dxfId="73" priority="58">
-      <formula>A6=8</formula>
+      <formula>A31=8</formula>
     </cfRule>
     <cfRule type="expression" dxfId="72" priority="59">
-      <formula>A6=7</formula>
+      <formula>A31=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="71" priority="60">
-      <formula>A6=6</formula>
+      <formula>A31=6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="70" priority="61">
-      <formula>A6=5</formula>
+      <formula>A31=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="69" priority="62">
-      <formula>A6=4</formula>
+      <formula>A31=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="68" priority="63">
-      <formula>A6=3</formula>
+      <formula>A31=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="67" priority="64">
-      <formula>A6=2</formula>
+      <formula>A31=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="66" priority="65">
-      <formula>A6=1</formula>
+      <formula>A31=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BA4 A6:BA29 A5:P5 AC5:BA5">
+  <conditionalFormatting sqref="A31:BA31 A46:BA53 A32:I42 A43:L45 AA32:BA45">
     <cfRule type="expression" dxfId="65" priority="39">
-      <formula>A1="P"</formula>
+      <formula>A31="P"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="64" priority="40">
-      <formula>A1=10</formula>
+      <formula>A31=10</formula>
     </cfRule>
     <cfRule type="expression" dxfId="63" priority="41">
-      <formula>A1=9</formula>
+      <formula>A31=9</formula>
     </cfRule>
     <cfRule type="expression" dxfId="62" priority="42">
-      <formula>A1=8</formula>
+      <formula>A31=8</formula>
     </cfRule>
     <cfRule type="expression" dxfId="61" priority="43">
-      <formula>A1=7</formula>
+      <formula>A31=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="60" priority="44">
-      <formula>A1=6</formula>
+      <formula>A31=6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="59" priority="45">
-      <formula>A1=5</formula>
+      <formula>A31=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="46">
-      <formula>A1=4</formula>
+      <formula>A31=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="57" priority="47">
-      <formula>A1=3</formula>
+      <formula>A31=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="56" priority="48">
-      <formula>A1=2</formula>
+      <formula>A31=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="55" priority="49">
-      <formula>A1=1</formula>
+      <formula>A31=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="50">
-      <formula>A1=15</formula>
+      <formula>A31=15</formula>
     </cfRule>
     <cfRule type="expression" dxfId="53" priority="51">
-      <formula>A1=14</formula>
+      <formula>A31=14</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="52">
-      <formula>A1=13</formula>
+      <formula>A31=13</formula>
     </cfRule>
     <cfRule type="expression" dxfId="51" priority="53">
-      <formula>A1=12</formula>
+      <formula>A31=12</formula>
     </cfRule>
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>A1=11</formula>
+      <formula>A31=11</formula>
     </cfRule>
     <cfRule type="expression" dxfId="49" priority="55">
-      <formula>A1="P"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="99">
-      <formula>A1="P"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="100">
-      <formula>A1=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="101">
-      <formula>A1=9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="102">
-      <formula>A1=8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="103">
-      <formula>A1=7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="104">
-      <formula>A1=6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="105">
-      <formula>A1=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="106">
-      <formula>A1=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="107">
-      <formula>A1=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="108">
-      <formula>A1=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="109">
-      <formula>A1=1</formula>
+      <formula>A31="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="66">
+      <formula>A31="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="67">
+      <formula>A31=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="68">
+      <formula>A31=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="69">
+      <formula>A31=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="70">
+      <formula>A31=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="71">
+      <formula>A31=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="72">
+      <formula>A31=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="73">
+      <formula>A31=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="74">
+      <formula>A31=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="75">
+      <formula>A31=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="76">
+      <formula>A31=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:BA53 A46:A52 F46:H46 L46:BA52 F47:K52 A31:BA45">
+  <conditionalFormatting sqref="T39:Z45">
     <cfRule type="expression" dxfId="37" priority="18">
-      <formula>A31=10</formula>
+      <formula>T39=10</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="19">
-      <formula>A31=9</formula>
+      <formula>T39=9</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="20">
-      <formula>A31=8</formula>
+      <formula>T39=8</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="21">
-      <formula>A31=7</formula>
+      <formula>T39=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="22">
-      <formula>A31=6</formula>
+      <formula>T39=6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="23">
-      <formula>A31=5</formula>
+      <formula>T39=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="24">
-      <formula>A31=4</formula>
+      <formula>T39=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="25">
-      <formula>A31=3</formula>
+      <formula>T39=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="26">
-      <formula>A31=2</formula>
+      <formula>T39=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="27">
-      <formula>A31=1</formula>
+      <formula>T39=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:BA53">
+  <conditionalFormatting sqref="T39:Z45">
     <cfRule type="expression" dxfId="27" priority="1">
-      <formula>A31="P"</formula>
+      <formula>T39="P"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="2">
-      <formula>A31=10</formula>
+      <formula>T39=10</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="3">
-      <formula>A31=9</formula>
+      <formula>T39=9</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="4">
-      <formula>A31=8</formula>
+      <formula>T39=8</formula>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="5">
-      <formula>A31=7</formula>
+      <formula>T39=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="6">
-      <formula>A31=6</formula>
+      <formula>T39=6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="7">
-      <formula>A31=5</formula>
+      <formula>T39=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="8">
-      <formula>A31=4</formula>
+      <formula>T39=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="9">
-      <formula>A31=3</formula>
+      <formula>T39=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="10">
-      <formula>A31=2</formula>
+      <formula>T39=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="11">
-      <formula>A31=1</formula>
+      <formula>T39=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="12">
-      <formula>A31=15</formula>
+      <formula>T39=15</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="13">
-      <formula>A31=14</formula>
+      <formula>T39=14</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="14">
-      <formula>A31=13</formula>
+      <formula>T39=13</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="15">
-      <formula>A31=12</formula>
+      <formula>T39=12</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="16">
-      <formula>A31=11</formula>
+      <formula>T39=11</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="17">
-      <formula>A31="P"</formula>
+      <formula>T39="P"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="28">
-      <formula>A31="P"</formula>
+      <formula>T39="P"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="29">
-      <formula>A31=10</formula>
+      <formula>T39=10</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="30">
-      <formula>A31=9</formula>
+      <formula>T39=9</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="31">
-      <formula>A31=8</formula>
+      <formula>T39=8</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="32">
-      <formula>A31=7</formula>
+      <formula>T39=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="33">
-      <formula>A31=6</formula>
+      <formula>T39=6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="34">
-      <formula>A31=5</formula>
+      <formula>T39=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="35">
-      <formula>A31=4</formula>
+      <formula>T39=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="36">
-      <formula>A31=3</formula>
+      <formula>T39=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="37">
-      <formula>A31=2</formula>
+      <formula>T39=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="38">
-      <formula>A31=1</formula>
+      <formula>T39=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stage/stage_3_Home.xlsx
+++ b/stage/stage_3_Home.xlsx
@@ -593,30 +593,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -629,7 +605,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1920,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH40" sqref="AH40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1933,224 +1933,224 @@
       <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
       <c r="O1" s="7">
         <v>10</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="38"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="47"/>
       <c r="V1" s="34"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="42"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="48"/>
     </row>
     <row r="2" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="2">
         <v>11</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42"/>
       <c r="V2" s="16"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="44"/>
     </row>
     <row r="3" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="2">
         <v>7</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="2">
         <v>12</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="42"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="43"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="44"/>
     </row>
     <row r="4" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="2">
         <v>13</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
       <c r="V4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="39" t="s">
+      <c r="W4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="43"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="44"/>
     </row>
     <row r="5" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="48"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="3">
         <v>14</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="46"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="38"/>
     </row>
     <row r="6" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
@@ -2677,13 +2677,13 @@
         <v>1</v>
       </c>
       <c r="X15" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y15" s="21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z15" s="31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
@@ -2783,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="Y16" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z16" s="24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA17" s="28"/>
       <c r="AB17" s="17"/>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="21">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X22" s="21">
         <v>0</v>
@@ -3443,19 +3443,19 @@
         <v>0</v>
       </c>
       <c r="S23" s="17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T23" s="17">
         <v>14</v>
       </c>
       <c r="U23" s="17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V23" s="17">
         <v>0</v>
       </c>
       <c r="W23" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X23" s="17">
         <v>0</v>
@@ -3498,7 +3498,7 @@
       <c r="A24" s="13"/>
       <c r="E24" s="9"/>
       <c r="J24" s="28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K24" s="17">
         <v>0</v>
@@ -3607,19 +3607,19 @@
         <v>0</v>
       </c>
       <c r="S25" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25" s="17">
         <v>0</v>
       </c>
       <c r="U25" s="17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V25" s="17">
         <v>14</v>
       </c>
       <c r="W25" s="17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X25" s="17">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T26" s="17">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>7</v>
       </c>
       <c r="R27" s="18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S27" s="14">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X39" s="17">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>13</v>
       </c>
       <c r="T40" s="28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U40" s="17">
         <v>0</v>
@@ -4657,10 +4657,10 @@
         <v>14</v>
       </c>
       <c r="X40" s="17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y40" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z40" s="24">
         <v>0</v>
@@ -4731,13 +4731,13 @@
         <v>4</v>
       </c>
       <c r="V41" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W41" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X41" s="17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="17">
         <v>0</v>
@@ -4811,19 +4811,19 @@
         <v>0</v>
       </c>
       <c r="V42" s="17">
+        <v>7</v>
+      </c>
+      <c r="W42" s="17">
         <v>4</v>
       </c>
-      <c r="W42" s="17">
-        <v>0</v>
-      </c>
       <c r="X42" s="17">
         <v>0</v>
       </c>
       <c r="Y42" s="17">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="24">
         <v>14</v>
-      </c>
-      <c r="Z42" s="24">
-        <v>0</v>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W43" s="9">
         <v>4</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="24">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="17"/>
       <c r="AB43" s="17"/>
@@ -4980,13 +4980,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X44" s="17">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y44" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z44" s="24">
         <v>0</v>
@@ -5544,12 +5544,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P5:AB5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="W3:AB3"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I3:N3"/>
@@ -5557,13 +5558,12 @@
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="P3:U3"/>
     <mergeCell ref="P4:U4"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="P5:AB5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="W4:AB4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A29:BA29 A22:A28 A6:BA21 J32:L35 T36:Z38 M37:S45 M32:W32 R33:W34 R36:S36 R35:Z35 M33:Q36 J22:BA28">
